--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365982.7428334086</v>
+        <v>457896.9318625613</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9321424.56066164</v>
+        <v>8666268.959347747</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8366664.172788469</v>
+        <v>8612872.176815499</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>129.3420634549347</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.52558716632</v>
+        <v>129.3420634549347</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="X3" t="n">
-        <v>165.1725371760947</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -853,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>13.47835778729062</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.10833718734072</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187.52558716632</v>
+        <v>43.07008646612834</v>
       </c>
       <c r="F5" t="n">
-        <v>165.1725371760945</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>86.27197698880633</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,16 +989,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>15.57343125785239</v>
       </c>
       <c r="U6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>146.8461210887089</v>
       </c>
     </row>
     <row r="7">
@@ -1090,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>13.47835778729062</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="10">
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>52.21594625443443</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>292.5870118835882</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>245.1911465657757</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1458,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>0.3416504137352149</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.809572818776</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>94.57983363108016</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>80.14829850681321</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7688271957736</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2274111152248</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1610,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>292.5870118835882</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>280.2361184978858</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>134.4690227430407</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0892145641079</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>91.6822004894704</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>61.36917500887013</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>194.7445699524668</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7688271957736</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>171.6311396695708</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>74.32262784155945</v>
       </c>
       <c r="D17" t="n">
-        <v>145.2481701217143</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247824</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>95.44336989065566</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>63.92502798775099</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>151.9554925943639</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.48046147214347</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851184</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.43436460396474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>336.9453122406936</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>52.33551640890108</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>129.5086817478176</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>98.56193867130521</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>256.7273523546859</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>145.2400692563855</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>3.853889977584284</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>242.8528437613046</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>32.97950884736245</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2925,7 +2927,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.1861887116282</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>74.69219553392834</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2967,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>105.0023863360931</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>33.78298043858021</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3123,7 +3125,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247742</v>
@@ -3162,7 +3164,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7871683969284</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>109.0294308692048</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>149.9901675479389</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>336.5969333774418</v>
+        <v>283.9746808062644</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3360,7 +3362,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>20.95866062610959</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>126.030027787395</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>28.93420885558123</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>344.0499580396269</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>54.51165059784277</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>173.7878278358059</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>191.3636734074875</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>227.7359967734939</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3834,7 +3836,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.596875418511</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247742</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.76697517902097</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>158.8661859444881</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3980,19 +3982,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>120.608807415962</v>
       </c>
       <c r="H44" t="n">
-        <v>238.4089002814613</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247818</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>37.67709528776631</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>20.95866062610969</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227603</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227603</v>
+        <v>142.3962386314752</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062754</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897905</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678499</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058954</v>
+        <v>53.10181779183029</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>141.3070323458398</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>271.1217663066259</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123831</v>
+        <v>407.6508467588565</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>523.2361246735312</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652801</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652801</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652801</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652801</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652801</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652801</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652801</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="Y2" t="n">
-        <v>583.2614020227603</v>
+        <v>439.0550691137153</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024218</v>
+        <v>12.97238670821035</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>112.566394683609</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>248.1447726172894</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>393.5224324951112</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>511.79410577561</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017065</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652801</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652801</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652801</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487953</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="V3" t="n">
-        <v>371.2627786323104</v>
+        <v>308.4065201693368</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158255</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L4" t="n">
-        <v>27.0396705623018</v>
+        <v>14.12595803543247</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>19.89179156510284</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396344</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829</v>
+        <v>25.36219250254178</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910431</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="R4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="S4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="T4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="U4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="V4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="W4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="X4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>560.6825636487949</v>
+        <v>203.5822427727909</v>
       </c>
       <c r="C5" t="n">
-        <v>560.6825636487949</v>
+        <v>203.5822427727909</v>
       </c>
       <c r="D5" t="n">
-        <v>371.2627786323101</v>
+        <v>203.5822427727909</v>
       </c>
       <c r="E5" t="n">
-        <v>181.8429936158253</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="F5" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J5" t="n">
-        <v>21.033711606785</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058946</v>
+        <v>53.10181779183036</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458398</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066261</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>407.6508467588568</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985583</v>
+        <v>523.2361246735313</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020266</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652798</v>
+        <v>500.241073255031</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652798</v>
+        <v>500.241073255031</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652798</v>
+        <v>500.241073255031</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652798</v>
+        <v>351.9116580139109</v>
       </c>
       <c r="V5" t="n">
-        <v>750.1023486652798</v>
+        <v>351.9116580139109</v>
       </c>
       <c r="W5" t="n">
-        <v>750.1023486652798</v>
+        <v>351.9116580139109</v>
       </c>
       <c r="X5" t="n">
-        <v>750.1023486652798</v>
+        <v>351.9116580139109</v>
       </c>
       <c r="Y5" t="n">
-        <v>750.1023486652798</v>
+        <v>351.9116580139109</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.0020469733056</v>
+        <v>274.9949152283</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0020469733056</v>
+        <v>274.9949152283</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0020469733056</v>
+        <v>274.9949152283</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>274.9949152283</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>274.9949152283</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>137.3766638989644</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>34.75265173585761</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024216</v>
+        <v>51.36582106616825</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>150.9598290415669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140245</v>
+        <v>247.5338027825028</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>392.9114626603246</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476349</v>
+        <v>511.1831359408234</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017064</v>
+        <v>586.7735145200487</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652798</v>
+        <v>587.3844843548354</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652798</v>
+        <v>571.6537457105401</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487949</v>
+        <v>571.6537457105401</v>
       </c>
       <c r="V6" t="n">
-        <v>371.2627786323101</v>
+        <v>571.6537457105401</v>
       </c>
       <c r="W6" t="n">
-        <v>181.8429936158253</v>
+        <v>571.6537457105401</v>
       </c>
       <c r="X6" t="n">
-        <v>15.0020469733056</v>
+        <v>571.6537457105401</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.0020469733056</v>
+        <v>423.32433046942</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230179</v>
+        <v>14.12595803543248</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170722</v>
+        <v>19.89179156510285</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396343</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828998</v>
+        <v>25.36219250254178</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828998</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828998</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828998</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828998</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="T7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="U7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="V7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="W7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="X7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>11.74768968709671</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.8416170062752</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C8" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D8" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M8" t="n">
         <v>347.1218190644753</v>
@@ -4817,37 +4819,37 @@
         <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652798</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652798</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652798</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W8" t="n">
-        <v>750.1023486652798</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X8" t="n">
-        <v>750.1023486652798</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.26140202276</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487949</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V9" t="n">
-        <v>371.2627786323101</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W9" t="n">
-        <v>181.8429936158253</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X9" t="n">
-        <v>15.0020469733056</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.0020469733056</v>
+        <v>181.8429936158252</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230176</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M10" t="n">
         <v>42.98993985170716</v>
@@ -4984,28 +4986,28 @@
         <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>715.4955945354636</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C11" t="n">
-        <v>346.5330775950519</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="D11" t="n">
-        <v>50.99064134900323</v>
+        <v>1450.534597785714</v>
       </c>
       <c r="E11" t="n">
-        <v>50.99064134900323</v>
+        <v>1064.74634518747</v>
       </c>
       <c r="F11" t="n">
-        <v>50.99064134900323</v>
+        <v>653.7604403978623</v>
       </c>
       <c r="G11" t="n">
-        <v>50.99064134900323</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>50.99064134900323</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>186.3894711936269</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>440.0557368508829</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>791.6529319622239</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2045.692679619748</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>2549.532067450162</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2549.532067450162</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2218.469180106591</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>1865.700524836477</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>1492.234766575397</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y11" t="n">
-        <v>1102.095434599585</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>533.615535296837</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>359.16250601571</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>210.2280963544587</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>50.99064134900323</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>50.99064134900323</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>50.99064134900323</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>112.8154098726238</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>296.6386113086637</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>590.1341319866243</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>951.9864295006906</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.824525520586</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>1668.571208589508</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>1914.691514651697</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2029.29722493079</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2029.29722493079</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2028.952123502774</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>1834.922613842059</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>1606.832136247336</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1371.680028015593</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1117.442671287392</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>909.5911710818589</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>701.830872316905</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.99064134900323</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C13" t="n">
-        <v>50.99064134900323</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D13" t="n">
-        <v>50.99064134900323</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>50.99064134900323</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>50.99064134900323</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>50.99064134900323</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>50.99064134900323</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K13" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>230.1506500142258</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M13" t="n">
-        <v>353.2767240409512</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N13" t="n">
-        <v>481.332661133576</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O13" t="n">
-        <v>579.2999565750215</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P13" t="n">
-        <v>644.0659310639645</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q13" t="n">
-        <v>644.0659310639645</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R13" t="n">
-        <v>644.0659310639645</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S13" t="n">
-        <v>563.1080537843552</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T13" t="n">
-        <v>340.1092384350889</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U13" t="n">
-        <v>50.99064134900323</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V13" t="n">
-        <v>50.99064134900323</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W13" t="n">
-        <v>50.99064134900323</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X13" t="n">
-        <v>50.99064134900323</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.99064134900323</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>715.4955945354636</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C14" t="n">
-        <v>346.5330775950519</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D14" t="n">
-        <v>346.5330775950519</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>346.5330775950519</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>346.5330775950519</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>346.5330775950519</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>186.3894711936269</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>440.0557368508829</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>791.6529319622241</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1214.54199449445</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>1648.887652554184</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2045.692679619749</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>2349.855588952495</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>2530.096520089548</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2218.469180106591</v>
+        <v>3042.53903524767</v>
       </c>
       <c r="W14" t="n">
-        <v>1865.700524836477</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="X14" t="n">
-        <v>1492.234766575397</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y14" t="n">
-        <v>1102.095434599585</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>533.615535296837</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>359.16250601571</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>210.2280963544587</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>50.99064134900323</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>50.99064134900323</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>50.99064134900323</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>50.99064134900323</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>112.8154098726237</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>296.6386113086637</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>590.1341319866242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>951.9864295006905</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1337.824525520586</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>1668.571208589507</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>1914.691514651697</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2029.29722493079</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2029.29722493079</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>1893.469929230748</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>1699.440419570033</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>1606.832136247336</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1371.680028015593</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1117.442671287392</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>909.5911710818589</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>701.830872316905</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="C16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="D16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="E16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="F16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="G16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="H16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="I16" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>50.99064134900323</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K16" t="n">
-        <v>116.462901117909</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L16" t="n">
-        <v>230.1506500142258</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>353.2767240409511</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>481.3326611335759</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>579.2999565750213</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>644.0659310639642</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>644.0659310639642</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>644.0659310639642</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S16" t="n">
-        <v>447.3542442432906</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T16" t="n">
-        <v>224.3554288940243</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="W16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="X16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.99064134900323</v>
+        <v>128.5011820977088</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796261</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="C17" t="n">
-        <v>552.8079389392144</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>406.0926155839475</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839475</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
         <v>406.0926155839475</v>
@@ -5513,16 +5515,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5552,13 +5554,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>162.919560766179</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C19" t="n">
-        <v>162.919560766179</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D19" t="n">
-        <v>162.919560766179</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>162.919560766179</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>162.919560766179</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
         <v>66.51211643218342</v>
@@ -5671,52 +5673,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>639.3706644025399</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>417.6040489720659</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>417.6040489720659</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V19" t="n">
-        <v>162.919560766179</v>
+        <v>567.2134036026658</v>
       </c>
       <c r="W19" t="n">
-        <v>162.919560766179</v>
+        <v>567.2134036026658</v>
       </c>
       <c r="X19" t="n">
-        <v>162.919560766179</v>
+        <v>567.2134036026658</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.919560766179</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1221.525483338121</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C20" t="n">
-        <v>852.5629663977095</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D20" t="n">
-        <v>494.2972677909589</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y20" t="n">
-        <v>1608.125323402243</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2640.167115151077</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="C22" t="n">
-        <v>2471.23093222317</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="D22" t="n">
-        <v>2471.23093222317</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="E22" t="n">
-        <v>2471.23093222317</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="F22" t="n">
-        <v>2471.23093222317</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="G22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K22" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N22" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O22" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P22" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>2912.153322005523</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>2912.153322005523</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V22" t="n">
-        <v>2912.153322005523</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W22" t="n">
-        <v>2912.153322005523</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X22" t="n">
-        <v>2912.153322005523</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y22" t="n">
-        <v>2821.815579981317</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1632.511388127729</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="C23" t="n">
-        <v>1263.548871187317</v>
+        <v>1561.900772669911</v>
       </c>
       <c r="D23" t="n">
-        <v>905.2831725805665</v>
+        <v>1203.63507406316</v>
       </c>
       <c r="E23" t="n">
-        <v>519.4949199823222</v>
+        <v>817.8468214649158</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>406.8609166753083</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6011,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X23" t="n">
-        <v>2071.975386180639</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y23" t="n">
-        <v>2019.11122819185</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
         <v>618.1564155387305</v>
@@ -6063,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2785.150955630593</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C25" t="n">
-        <v>2785.150955630593</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D25" t="n">
-        <v>2785.150955630593</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E25" t="n">
-        <v>2785.150955630593</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F25" t="n">
-        <v>2785.150955630593</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G25" t="n">
-        <v>2617.448119005312</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W25" t="n">
-        <v>3194.78897135885</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X25" t="n">
-        <v>2966.799420460833</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y25" t="n">
-        <v>2966.799420460833</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1308.370295943748</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C26" t="n">
-        <v>939.4077790033366</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D26" t="n">
-        <v>581.1420803965862</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>736.8185791558171</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>325.8326743662096</v>
       </c>
       <c r="G26" t="n">
         <v>66.51211643218343</v>
@@ -6251,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943748</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>364.5418494269123</v>
+        <v>627.5770176220484</v>
       </c>
       <c r="C28" t="n">
-        <v>364.5418494269123</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D28" t="n">
-        <v>214.4252100145765</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218343</v>
@@ -6418,16 +6420,16 @@
         <v>920.887005818185</v>
       </c>
       <c r="V28" t="n">
-        <v>774.1798651551693</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W28" t="n">
-        <v>774.1798651551693</v>
+        <v>631.4698357812244</v>
       </c>
       <c r="X28" t="n">
-        <v>546.190314257152</v>
+        <v>627.5770176220484</v>
       </c>
       <c r="Y28" t="n">
-        <v>546.190314257152</v>
+        <v>627.5770176220484</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1204.726236768953</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C29" t="n">
-        <v>835.7637198285415</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D29" t="n">
-        <v>477.498021221791</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F29" t="n">
-        <v>66.51211643218343</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
@@ -6488,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3292.293186409815</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3292.293186409815</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3038.762709683652</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2707.699822340081</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2354.931167069967</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X29" t="n">
-        <v>1981.465408808887</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y29" t="n">
-        <v>1591.326076833075</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>649.4080837454732</v>
+        <v>700.0944266746549</v>
       </c>
       <c r="C31" t="n">
-        <v>649.4080837454732</v>
+        <v>700.0944266746549</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>700.0944266746549</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218343</v>
@@ -6643,28 +6645,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X31" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y31" t="n">
-        <v>831.0565485757129</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1285.591601078694</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C32" t="n">
-        <v>916.6290841382822</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>558.3633855315318</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>172.5751329332875</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>172.5751329332875</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G32" t="n">
-        <v>172.5751329332875</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
         <v>66.5121164321834</v>
@@ -6728,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3291.481598943938</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993392</v>
+        <v>3037.951122217774</v>
       </c>
       <c r="V32" t="n">
-        <v>2788.565186649821</v>
+        <v>2706.888234874203</v>
       </c>
       <c r="W32" t="n">
-        <v>2435.796531379707</v>
+        <v>2354.119579604089</v>
       </c>
       <c r="X32" t="n">
-        <v>2062.330773118627</v>
+        <v>1980.653821343009</v>
       </c>
       <c r="Y32" t="n">
-        <v>1672.191441142816</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064545</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2471.230932223169</v>
+        <v>3143.95735677893</v>
       </c>
       <c r="C34" t="n">
-        <v>2471.230932223169</v>
+        <v>2975.021173851023</v>
       </c>
       <c r="D34" t="n">
-        <v>2471.230932223169</v>
+        <v>2824.904534438688</v>
       </c>
       <c r="E34" t="n">
-        <v>2471.230932223169</v>
+        <v>2824.904534438688</v>
       </c>
       <c r="F34" t="n">
-        <v>2471.230932223169</v>
+        <v>2824.904534438688</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>2714.773796186966</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I34" t="n">
         <v>2471.230932223169</v>
@@ -6883,25 +6885,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435996</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>2912.153322005523</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>2760.64810226013</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V34" t="n">
-        <v>2760.64810226013</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.230932223169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X34" t="n">
-        <v>2471.230932223169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="Y34" t="n">
-        <v>2471.230932223169</v>
+        <v>3325.60582160917</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1859.132475219475</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C35" t="n">
-        <v>1859.132475219475</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.866776612724</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E35" t="n">
-        <v>1115.07852401448</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="F35" t="n">
-        <v>704.0926192248726</v>
+        <v>353.355228357703</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,13 +6937,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520488</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W35" t="n">
-        <v>3009.337405520488</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X35" t="n">
-        <v>2635.871647259408</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y35" t="n">
-        <v>2245.732315283597</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
@@ -7047,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3325.605821609171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C37" t="n">
-        <v>3156.669638681264</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>3156.669638681264</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>3029.366580310158</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>2882.476632812248</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>2714.773796186967</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>3325.605821609171</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V37" t="n">
-        <v>3325.605821609171</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W37" t="n">
-        <v>3325.605821609171</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X37" t="n">
-        <v>3325.605821609171</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="Y37" t="n">
-        <v>3325.605821609171</v>
+        <v>87.68248070098099</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796261</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C38" t="n">
-        <v>552.8079389392144</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D38" t="n">
-        <v>523.5814653477182</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E38" t="n">
-        <v>523.5814653477182</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>711.6209269644535</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943748</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="39">
@@ -7254,10 +7256,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C40" t="n">
         <v>66.51211643218342</v>
@@ -7369,13 +7371,13 @@
         <v>631.7841389438285</v>
       </c>
       <c r="W40" t="n">
-        <v>631.7841389438285</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X40" t="n">
-        <v>456.2408785036205</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y40" t="n">
-        <v>235.4482993600903</v>
+        <v>121.5743897633377</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1399.327137149148</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C41" t="n">
-        <v>1399.327137149148</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D41" t="n">
-        <v>1041.061438542398</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="E41" t="n">
-        <v>655.2731859441537</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="F41" t="n">
-        <v>244.2872811545462</v>
+        <v>711.6209269644535</v>
       </c>
       <c r="G41" t="n">
-        <v>50.99064134900323</v>
+        <v>296.5484768094499</v>
       </c>
       <c r="H41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>239.8697723080287</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>573.6891459978751</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1024.723359246284</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1558.255263918209</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>1739.25616825834</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2242.228639137677</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>2242.228639137677</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>2490.515000893359</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2549.532067450162</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W41" t="n">
-        <v>2549.532067450162</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X41" t="n">
-        <v>2176.066309189082</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y41" t="n">
-        <v>1785.92697721327</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>926.0223793979283</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>751.5693501168013</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>602.63494045555</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>443.3974854500945</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>296.8629274769795</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>160.4998273095976</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>69.99793294746527</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>144.6679108396206</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>382.9321098199677</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>749.6302701326331</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.429638909403</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.390918327458</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2391.890509803561</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2549.532067450161</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2549.387714042676</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2419.949827536156</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2227.306827214012</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>1999.238980348427</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1764.086872116685</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1509.849515388483</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1301.99801518295</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1094.237716417996</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>830.8534345945795</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C43" t="n">
-        <v>661.9172516666727</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D43" t="n">
-        <v>511.8006122543369</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>511.8006122543369</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>364.9106647564265</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>197.2078281311454</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>62.81339488644269</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K43" t="n">
-        <v>161.1242491541131</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>316.8340930764704</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>484.2665743756681</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>655.5754114055156</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>793.4937606237054</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>892.444763376464</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>905.3655307350048</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>905.3655307350048</v>
+        <v>760.4161109247625</v>
       </c>
       <c r="U43" t="n">
-        <v>905.3655307350048</v>
+        <v>471.3132440504061</v>
       </c>
       <c r="V43" t="n">
-        <v>905.3655307350048</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="W43" t="n">
-        <v>905.3655307350048</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="X43" t="n">
-        <v>905.3655307350048</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.3655307350048</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1046.558481879034</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C44" t="n">
-        <v>677.5959649386225</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D44" t="n">
-        <v>677.5959649386225</v>
+        <v>985.1133520179767</v>
       </c>
       <c r="E44" t="n">
-        <v>291.8077123403783</v>
+        <v>599.3250994197324</v>
       </c>
       <c r="F44" t="n">
-        <v>291.8077123403783</v>
+        <v>188.3391946301248</v>
       </c>
       <c r="G44" t="n">
-        <v>291.8077123403783</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>181.3952879018627</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>515.2146615917092</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>966.248874840118</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1499.780779512042</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2046.559596570825</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2549.532067450162</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>2549.532067450162</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>2549.532067450162</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>2549.532067450162</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>2549.532067450162</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W44" t="n">
-        <v>2196.763412180047</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X44" t="n">
-        <v>1823.297653918968</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y44" t="n">
-        <v>1433.158321943156</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>926.0223793979292</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>751.5693501168022</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>602.6349404555509</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>443.3974854500954</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>296.8629274769804</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>160.4998273095985</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>69.99793294746604</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>50.99064134900323</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>144.6679108396208</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>382.932109819968</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>749.6302701326334</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1196.906595354949</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.429638909404</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2081.390918327459</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2391.890509803562</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2549.532067450162</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2549.387714042677</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2419.949827536157</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2227.306827214013</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>1999.238980348428</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1764.086872116686</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1509.849515388484</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1301.998015182951</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1094.237716417997</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2329.825930612077</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>2160.88974768417</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>2010.773108271835</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>1862.860014689442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>1862.860014689442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>1695.157178064161</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>1695.157178064161</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>1695.157178064161</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>1706.9799316016</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
-        <v>1805.29078586927</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>1961.000629791628</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>2128.433111090826</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>2299.741948120673</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>2437.660297338863</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>2536.611300091621</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>2549.532067450162</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>2549.532067450162</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>2549.532067450162</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>2511.474395442317</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>2511.474395442317</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V46" t="n">
-        <v>2511.474395442317</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="W46" t="n">
-        <v>2511.474395442317</v>
+        <v>87.6824807009811</v>
       </c>
       <c r="X46" t="n">
-        <v>2511.474395442317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y46" t="n">
-        <v>2511.474395442317</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
   </sheetData>
@@ -22544,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>235.8877205747717</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>218.4267706822987</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>225.3409781657483</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059417</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>86.27197698880633</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>67.2382049840829</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.065401479959</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>77.29308816345807</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377089</v>
+        <v>96.52685491898956</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310523</v>
+        <v>85.95446606071644</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459957</v>
+        <v>104.8488620722108</v>
       </c>
       <c r="X3" t="n">
-        <v>40.60044802738275</v>
+        <v>58.92686411476865</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>61.70981873818779</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>21.72895798776025</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>12.56652187753461</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.57770336425651</v>
+        <v>74.18139529270546</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971606</v>
+        <v>235.8877205747717</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>194.4047829059418</v>
+        <v>338.8602836061335</v>
       </c>
       <c r="F5" t="n">
-        <v>241.7035085656169</v>
+        <v>260.0299246530026</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>104.3348437827354</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>19.68706256115848</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22875,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846319</v>
+        <v>77.29308816345807</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>180.1516876516722</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310532</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>40.60044802738295</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>58.8365746885955</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825415</v>
+        <v>61.70981873818779</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1043098940285</v>
+        <v>21.72895798776025</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709383</v>
+        <v>12.56652187753461</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159723</v>
+        <v>74.18139529270546</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T7" t="n">
-        <v>171.5037272356656</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>177.7473046046876</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23033,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637381</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23072,22 +23074,22 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>48.27134388011225</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510931</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>221.065401479959</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>1.360646473772903</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23154,19 +23156,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310532</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459965</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
-        <v>40.60044802738295</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="10">
@@ -23224,13 +23226,13 @@
         <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625593</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>171.5037272356657</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>62.0960297370948</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5582063813129</v>
+        <v>165.7305790876777</v>
       </c>
       <c r="H11" t="n">
-        <v>301.1261226415114</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>66.11485303372848</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>206.704164525825</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0460904171307</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23346,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3400163777887</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>92.88584454571124</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.54219944928973</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.28670958487416</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>134.1273723293054</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23416,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754767</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3113116019144</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2933991810722</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.9382845759051</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
-        <v>8.242911051707679</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.8557315791696</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>101.7694211601826</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>114.5962714456536</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5582063813129</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>8.539110757923197</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>66.11485303372848</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.6915663742737</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>206.704164525825</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0460904171307</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>47.51613997224911</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23583,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3400163777887</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>92.88584454571124</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>30.54219944928974</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.28670958487417</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23628,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>134.1273723293056</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3113116019144</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2933991810722</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>104.9382845759051</v>
+        <v>34.98324540096796</v>
       </c>
       <c r="J16" t="n">
-        <v>8.242911051707694</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.85573157916963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.7694211601826</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.596271445654</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>290.9502639294481</v>
       </c>
       <c r="D17" t="n">
-        <v>209.4348714989687</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>70.58243836837256</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>188.212615336077</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>230.7783490691167</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.7574771839101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>145.0671476329186</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.15028874813</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>73.97641341275988</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>333.9024222471525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24424,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>157.0143165887734</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>283.3684314009566</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>154.1943732987676</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>106.8975740674425</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>221.8557654114529</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>168.0688818921489</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>76.2082529408134</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>29.42928430658417</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.74176711264083</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24904,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>189.6053780512274</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24968,10 +24970,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>170.1349897010399</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>56.99637738982341</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>136.2216706576739</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>74.32479227601164</v>
+        <v>126.9470448471891</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>158.8733195558277</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>20.40393485917414</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>325.7488327651017</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>66.87176761382653</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>125.3203295840945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25609,10 +25611,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>51.92182755323128</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>219.5580522459659</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>66.87176761382659</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25685,10 +25687,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.0650050029163</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25837,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>60.68276333168106</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>290.3129182374915</v>
       </c>
       <c r="H44" t="n">
-        <v>56.1988641058592</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26074,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>181.8718539884029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337678</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337677</v>
+        <v>402256.5418769756</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732074.4812007229</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732074.4812007229</v>
+        <v>855506.5411587493</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587493</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777591.6108183698</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777591.6108183697</v>
+        <v>855506.541158749</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.6800963041</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.6800963041</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963041</v>
+        <v>149975.680096304</v>
       </c>
       <c r="E2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="F2" t="n">
-        <v>253410.3973387115</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="H2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="I2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="J2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="K2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="L2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="M2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="N2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="O2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="P2" t="n">
         <v>296136.8796318745</v>
-      </c>
-      <c r="N2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="O2" t="n">
-        <v>269166.3268217432</v>
-      </c>
-      <c r="P2" t="n">
-        <v>269166.3268217433</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751307</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>43803.80384074425</v>
       </c>
       <c r="E3" t="n">
-        <v>442006.562897979</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176272.8472779121</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854467</v>
+        <v>38421.40650613423</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10295.60674904856</v>
       </c>
       <c r="M3" t="n">
-        <v>112106.270910017</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723341</v>
+        <v>107.192147960263</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723341</v>
+        <v>107.192147960263</v>
       </c>
       <c r="D4" t="n">
         <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>449.9968236586046</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="F4" t="n">
-        <v>449.9968236586045</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>492.9197747418262</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>53719.11977902091</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.11977902092</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>59058.54363117638</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>59058.54363117638</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
@@ -26506,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>62510.01949817636</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-498504.8229542272</v>
+        <v>-457239.0977908512</v>
       </c>
       <c r="C6" t="n">
-        <v>92852.07956661817</v>
+        <v>85416.3371842794</v>
       </c>
       <c r="D6" t="n">
-        <v>92852.07956661817</v>
+        <v>49048.27572587383</v>
       </c>
       <c r="E6" t="n">
-        <v>-248104.7060141026</v>
+        <v>-405888.7515521926</v>
       </c>
       <c r="F6" t="n">
-        <v>193901.8568838765</v>
+        <v>221245.8920814754</v>
       </c>
       <c r="G6" t="n">
-        <v>44973.04480356298</v>
+        <v>221245.8920814751</v>
       </c>
       <c r="H6" t="n">
+        <v>221245.8920814751</v>
+      </c>
+      <c r="I6" t="n">
+        <v>221245.8920814749</v>
+      </c>
+      <c r="J6" t="n">
+        <v>182824.4855753408</v>
+      </c>
+      <c r="K6" t="n">
+        <v>221245.892081475</v>
+      </c>
+      <c r="L6" t="n">
+        <v>210950.2853324266</v>
+      </c>
+      <c r="M6" t="n">
+        <v>60789.45021359774</v>
+      </c>
+      <c r="N6" t="n">
+        <v>221245.892081475</v>
+      </c>
+      <c r="O6" t="n">
         <v>221245.8920814752</v>
       </c>
-      <c r="I6" t="n">
-        <v>221245.8920814754</v>
-      </c>
-      <c r="J6" t="n">
-        <v>172180.9473529304</v>
-      </c>
-      <c r="K6" t="n">
-        <v>221245.8920814752</v>
-      </c>
-      <c r="L6" t="n">
-        <v>221245.8920814752</v>
-      </c>
-      <c r="M6" t="n">
-        <v>109139.6211714581</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>221245.8920814751</v>
-      </c>
-      <c r="O6" t="n">
-        <v>206163.3875488251</v>
-      </c>
-      <c r="P6" t="n">
-        <v>206163.3875488251</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129047</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
-        <v>931.4521195382532</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>931.4521195382531</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
@@ -26826,10 +26828,10 @@
         <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>637.3830168625404</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36.39307775568352</v>
       </c>
       <c r="E3" t="n">
-        <v>382.9821786253486</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158.3245810550454</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.67946607761101</v>
       </c>
       <c r="E4" t="n">
-        <v>449.8574296962205</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>194.0184385397523</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>146.8461210887092</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761067</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962207</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.67946607761101</v>
       </c>
       <c r="M4" t="n">
-        <v>449.8574296962205</v>
+        <v>643.8758682359729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>194.0184385397523</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>139.0785066724536</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>279.0818904206855</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>278.1878331720421</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936717</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043121</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470025</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244295</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924582</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590851</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986737</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M6" t="n">
-        <v>298.916117797533</v>
+        <v>239.6835023472061</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>278.1878331720421</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332808</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550077</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T6" t="n">
-        <v>4.75513090282037</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620018</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114196</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784861</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647911</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181395</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.744531133822121</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>38.3486794742558</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>317.8123993192355</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>476.3184022139259</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>590.9150969006348</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>657.5069024517439</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>668.1460515357161</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>630.9113700737723</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>538.4682577075387</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>404.3672364775338</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>235.217403834954</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>85.32850321197166</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>16.39168503830634</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2995624907057696</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.003500785421903</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>19.34959969078523</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>68.98018055071027</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>323.5214404249044</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>435.0145016768041</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>507.6414051483479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>521.07716260848</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>476.683803099921</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>382.5807771741177</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>37.21414836079717</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>8.075514130713721</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1318092621988095</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.679667756544391</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.93377332636741</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>50.51219035135315</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>249.7207862775179</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>263.2955556917721</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>257.034975871925</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>237.4134025341109</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>203.1481803006052</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>140.6492700502762</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>75.52397021698687</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>29.27202808450542</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>7.17676223250785</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09161824126605779</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.74453113382212</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>38.3486794742558</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.3610365366774</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>317.8123993192355</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>476.3184022139259</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>590.9150969006347</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>657.5069024517438</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>668.146051535716</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>630.9113700737722</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>538.4682577075386</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>404.3672364775338</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>235.217403834954</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>85.32850321197165</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.39168503830634</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2995624907057696</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.003500785421903</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.34959969078522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>68.98018055071026</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2868878016369</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>323.5214404249044</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>435.014501676804</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6414051483479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>521.07716260848</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>476.6838030999209</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>382.5807771741176</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>255.7451178022766</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.3927943790898</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.21414836079716</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.075514130713719</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1318092621988095</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.679667756544391</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.93377332636741</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.51219035135315</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>118.7525103876884</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.1468538967028</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>249.7207862775179</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>263.2955556917721</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>257.034975871925</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>237.4134025341109</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>203.1481803006051</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>140.6492700502762</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.52397021698685</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>29.27202808450541</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.17676223250785</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09161824126605778</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095016</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33272,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34141,13 +34143,13 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>412.242259899754</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
         <v>473.099994678169</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7677697315949</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34384,13 +34386,13 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>1.237067698094591</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>136.9478564986671</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>76.35391775679327</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765017</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.09259053886808</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788338</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197547</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504116</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405813</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915996</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065978</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781472</v>
+        <v>40.01831452431469</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606291</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755147</v>
+        <v>97.5494684251878</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887089</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P6" t="n">
-        <v>91.301859448557</v>
+        <v>76.35391775679327</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764999</v>
+        <v>0.6171412472592692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.1592157464608</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061155</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520829</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400552</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>136.7664947925492</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>256.2285511689454</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>355.1486819306476</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>427.1606692244712</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>438.7329879391252</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>400.8131586520856</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>307.2352619522691</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>182.0615466030843</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>19.63186602082186</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>62.44926113497024</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>185.6800014505454</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>296.4601218969299</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>365.5073712263296</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>389.7354505251467</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>334.0875586554765</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>248.6063697597874</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>115.7633437162551</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K13" t="n">
-        <v>66.13359572616744</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L13" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M13" t="n">
-        <v>124.369771744167</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>129.3494314066918</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O13" t="n">
-        <v>98.95686408226811</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P13" t="n">
-        <v>65.42017625145755</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>136.7664947925492</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>256.2285511689453</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>355.1486819306475</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>427.1606692244711</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>438.7329879391251</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>400.8131586520855</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>307.235261952269</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>182.0615466030843</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>19.63186602082183</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.44926113497021</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>185.6800014505454</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>296.4601218969298</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>365.5073712263296</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>389.7354505251467</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>334.0875586554765</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>248.6063697597874</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.7633437162551</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>66.13359572616741</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>114.8361099962796</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>124.369771744167</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>129.3494314066918</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
-        <v>98.95686408226808</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>65.42017625145752</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865553995</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36920,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37789,13 +37791,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>182.8291963031631</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>131.7218652049085</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38032,13 +38034,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>457896.9318625613</v>
+        <v>399383.529336755</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8666268.959347747</v>
+        <v>8547013.05951393</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8612872.176815499</v>
+        <v>8673692.685730742</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D2" t="n">
-        <v>129.3420634549347</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.396723986041382</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>146.8461210887088</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.02307145248640928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>129.3420634549347</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.935701265474336</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>13.47835778729062</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>52.21594625443434</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>146.8461210887089</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>43.07008646612834</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>146.8461210887089</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>86.27197698880633</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="U5" t="n">
-        <v>146.8461210887089</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.8461210887089</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>27.802342363975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J6" t="n">
-        <v>22.7749124282733</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>15.57343125785239</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>146.8461210887089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>7.935701265474336</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>13.47835778729062</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.396723986041591</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>165.1725371760945</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>245.1911465657757</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>48.28983649715861</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>94.57983363108016</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>81.77200357366343</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>138.9527516093519</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>280.2361184978858</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>61.36917500887013</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.62774187000176</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>74.32262784155945</v>
+        <v>285.8224305096701</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>12.40418031676334</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>63.92502798775099</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>151.9554925943639</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>88.37584375131343</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>22.32798500961401</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>336.9453122406936</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>346.3212851693905</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>58.28185552386348</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>336.1680648472528</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>256.7273523546859</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>117.4014735002805</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>3.853889977584284</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>226.8602185319219</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>242.8528437613046</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>74.69219553392834</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>6.944023270396605</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>157.0650692896151</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>33.78298043858021</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247742</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>109.0294308692048</v>
+        <v>4.880279655986155</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>283.9746808062644</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>120.6088074159607</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3362,7 +3362,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
         <v>18.81721868247742</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.95866062610959</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>344.0499580396269</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.51165059784277</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>194.7787730209281</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>227.7359967734939</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>107.9784290126182</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
         <v>18.81721868247742</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>158.8661859444881</v>
+        <v>205.9368310100323</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>138.8992180371983</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>120.608807415962</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13.44513792155707</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>290.7256538725952</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="C2" t="n">
-        <v>142.3962386314752</v>
+        <v>210.8831693494281</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709671</v>
+        <v>21.46338433294335</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709671</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>53.10181779183029</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458398</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066259</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588565</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>523.2361246735312</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548353</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548353</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T2" t="n">
-        <v>439.0550691137153</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U2" t="n">
-        <v>439.0550691137153</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="V2" t="n">
-        <v>439.0550691137153</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="W2" t="n">
-        <v>439.0550691137153</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="X2" t="n">
-        <v>439.0550691137153</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="Y2" t="n">
-        <v>439.0550691137153</v>
+        <v>589.7227393823975</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="C3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="D3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="E3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="F3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="G3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.53661367296053</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>12.97238670821035</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>112.566394683609</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>248.1447726172894</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>393.5224324951112</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>511.79410577561</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>587.3844843548353</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548353</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>587.3844843548353</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>587.3844843548353</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="U3" t="n">
-        <v>456.7359354104568</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="V3" t="n">
-        <v>308.4065201693368</v>
+        <v>409.399488203391</v>
       </c>
       <c r="W3" t="n">
-        <v>160.0771049282168</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="X3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.74768968709671</v>
+        <v>30.55991817042155</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="E4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="F4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="G4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="H4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="I4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="K4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="L4" t="n">
-        <v>14.12595803543247</v>
+        <v>709.3965921992915</v>
       </c>
       <c r="M4" t="n">
-        <v>19.89179156510284</v>
+        <v>725.3468614886968</v>
       </c>
       <c r="N4" t="n">
-        <v>33.37805236665727</v>
+        <v>748.775394930953</v>
       </c>
       <c r="O4" t="n">
-        <v>25.36219250254178</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P4" t="n">
-        <v>11.74768968709671</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.74768968709671</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>11.74768968709671</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>11.74768968709671</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>11.74768968709671</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U4" t="n">
-        <v>11.74768968709671</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V4" t="n">
-        <v>11.74768968709671</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="X4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.74768968709671</v>
+        <v>697.3589686102953</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>203.5822427727909</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C5" t="n">
-        <v>203.5822427727909</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D5" t="n">
-        <v>203.5822427727909</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E5" t="n">
-        <v>160.0771049282168</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F5" t="n">
-        <v>11.74768968709671</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74768968709671</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H5" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709671</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183036</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458398</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066261</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588568</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735313</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548354</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548354</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R5" t="n">
-        <v>500.241073255031</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S5" t="n">
-        <v>500.241073255031</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T5" t="n">
-        <v>500.241073255031</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U5" t="n">
-        <v>351.9116580139109</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V5" t="n">
-        <v>351.9116580139109</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W5" t="n">
-        <v>351.9116580139109</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X5" t="n">
-        <v>351.9116580139109</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y5" t="n">
-        <v>351.9116580139109</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>274.9949152283</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="C6" t="n">
-        <v>274.9949152283</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="D6" t="n">
-        <v>274.9949152283</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="E6" t="n">
-        <v>274.9949152283</v>
+        <v>191.896529081881</v>
       </c>
       <c r="F6" t="n">
-        <v>274.9949152283</v>
+        <v>191.896529081881</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3766638989644</v>
+        <v>191.896529081881</v>
       </c>
       <c r="H6" t="n">
-        <v>34.75265173585761</v>
+        <v>90.03616812153784</v>
       </c>
       <c r="I6" t="n">
-        <v>34.75265173585761</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>51.36582106616825</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>150.9598290415669</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M6" t="n">
-        <v>247.5338027825028</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9114626603246</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408234</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200487</v>
+        <v>739.5989987017059</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548354</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548354</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S6" t="n">
-        <v>587.3844843548354</v>
+        <v>598.8192732198756</v>
       </c>
       <c r="T6" t="n">
-        <v>571.6537457105401</v>
+        <v>409.3994882033909</v>
       </c>
       <c r="U6" t="n">
-        <v>571.6537457105401</v>
+        <v>409.3994882033909</v>
       </c>
       <c r="V6" t="n">
-        <v>571.6537457105401</v>
+        <v>409.3994882033909</v>
       </c>
       <c r="W6" t="n">
-        <v>571.6537457105401</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="X6" t="n">
-        <v>571.6537457105401</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="Y6" t="n">
-        <v>423.32433046942</v>
+        <v>219.9797031869062</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709671</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>14.12595803543248</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M7" t="n">
-        <v>19.89179156510285</v>
+        <v>42.9899398517071</v>
       </c>
       <c r="N7" t="n">
-        <v>33.37805236665727</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O7" t="n">
-        <v>25.36219250254178</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74768968709671</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494285</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494285</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294358</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330559</v>
+        <v>21.46338433294358</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058967</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079183</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652795</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="T8" t="n">
-        <v>583.2614020227597</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="U8" t="n">
-        <v>393.841617006275</v>
+        <v>210.8831693494285</v>
       </c>
       <c r="V8" t="n">
-        <v>204.4218319897903</v>
+        <v>210.8831693494285</v>
       </c>
       <c r="W8" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494285</v>
       </c>
       <c r="X8" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494285</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.00204697330559</v>
+        <v>210.8831693494285</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.1341887702422</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U9" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="V9" t="n">
-        <v>560.6825636487947</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W9" t="n">
-        <v>371.26277863231</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="X9" t="n">
-        <v>371.26277863231</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.8429936158252</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N10" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702829011</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1808.800296392465</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C11" t="n">
-        <v>1808.800296392465</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D11" t="n">
-        <v>1450.534597785714</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>1064.74634518747</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>653.7604403978623</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5041,10 +5041,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392465</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>1808.800296392465</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5144,28 +5144,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>920.8870058181855</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3518203322459</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2351809199101</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="E13" t="n">
-        <v>527.322087337517</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5199,52 +5199,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U13" t="n">
-        <v>920.8870058181855</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V13" t="n">
-        <v>920.8870058181855</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W13" t="n">
-        <v>920.8870058181855</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X13" t="n">
-        <v>920.8870058181855</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.8870058181855</v>
+        <v>149.1100998399243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>1758.295537883724</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V14" t="n">
-        <v>3042.53903524767</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W14" t="n">
-        <v>2689.770379977556</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X14" t="n">
-        <v>2689.770379977556</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>2144.895377947846</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,31 +5375,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S16" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T16" t="n">
-        <v>417.6040489720652</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="U16" t="n">
-        <v>128.5011820977088</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="V16" t="n">
-        <v>128.5011820977088</v>
+        <v>354.6054449393516</v>
       </c>
       <c r="W16" t="n">
-        <v>128.5011820977088</v>
+        <v>354.6054449393516</v>
       </c>
       <c r="X16" t="n">
-        <v>128.5011820977088</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.5011820977088</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2051.278283189674</v>
+        <v>1514.348043559525</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810557</v>
@@ -5527,7 +5527,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450754</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X17" t="n">
-        <v>2051.278283189674</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y17" t="n">
-        <v>2051.278283189674</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5597,10 +5597,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,34 +5612,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>385.5649387724261</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445192</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
         <v>66.51211643218342</v>
@@ -5673,52 +5673,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V19" t="n">
-        <v>567.2134036026658</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W19" t="n">
-        <v>567.2134036026658</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X19" t="n">
-        <v>567.2134036026658</v>
+        <v>692.8974549201672</v>
       </c>
       <c r="Y19" t="n">
-        <v>567.2134036026658</v>
+        <v>692.8974549201672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1617.939223126803</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
         <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W20" t="n">
-        <v>2535.034709923658</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X20" t="n">
-        <v>2161.568951662578</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y20" t="n">
-        <v>1771.429619686766</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,34 +5849,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.68248070098099</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C22" t="n">
-        <v>87.68248070098099</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D22" t="n">
-        <v>87.68248070098099</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E22" t="n">
-        <v>87.68248070098099</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>87.68248070098099</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R22" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S22" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T22" t="n">
-        <v>920.8870058181849</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438285</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379416</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="W22" t="n">
-        <v>87.68248070098099</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="X22" t="n">
-        <v>87.68248070098099</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="Y22" t="n">
-        <v>87.68248070098099</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1561.900772669911</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C23" t="n">
-        <v>1561.900772669911</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D23" t="n">
-        <v>1203.63507406316</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>817.8468214649158</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8609166753083</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520487</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2678.274518176916</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2325.505862906802</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>1952.040104645722</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y23" t="n">
-        <v>1561.900772669911</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>739.2385409879452</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C25" t="n">
-        <v>570.3023580600383</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>125.382677567399</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6177,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>920.8870058181849</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U25" t="n">
-        <v>920.8870058181849</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V25" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.569348694473</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.606831754061</v>
+        <v>806.3384156653772</v>
       </c>
       <c r="D26" t="n">
-        <v>1122.606831754061</v>
+        <v>448.0727170586267</v>
       </c>
       <c r="E26" t="n">
-        <v>736.8185791558171</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F26" t="n">
-        <v>325.8326743662096</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265601</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.774278995486</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.308520734407</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.169188758595</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>627.5770176220484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>458.6408346941415</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>458.6408346941415</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>310.7277411117484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T28" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U28" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V28" t="n">
-        <v>920.887005818185</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W28" t="n">
-        <v>631.4698357812244</v>
+        <v>185.0994634021637</v>
       </c>
       <c r="X28" t="n">
-        <v>627.5770176220484</v>
+        <v>185.0994634021637</v>
       </c>
       <c r="Y28" t="n">
-        <v>627.5770176220484</v>
+        <v>185.0994634021637</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2175.400891308158</v>
+        <v>1848.950422814787</v>
       </c>
       <c r="C29" t="n">
-        <v>1806.438374367746</v>
+        <v>1479.987905874375</v>
       </c>
       <c r="D29" t="n">
-        <v>1448.172675760996</v>
+        <v>1121.722207267625</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.384423162752</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>651.398518373144</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W29" t="n">
-        <v>3325.605821609171</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X29" t="n">
-        <v>2952.140063348092</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.00073137228</v>
+        <v>2235.550262878909</v>
       </c>
     </row>
     <row r="30">
@@ -6518,70 +6518,70 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G30" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U30" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>700.0944266746549</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C31" t="n">
-        <v>700.0944266746549</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>700.0944266746549</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218343</v>
@@ -6663,10 +6663,10 @@
         <v>920.887005818185</v>
       </c>
       <c r="X31" t="n">
-        <v>920.887005818185</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y31" t="n">
-        <v>700.0944266746549</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.514489367197</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3291.481598943938</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U32" t="n">
-        <v>3037.951122217774</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V32" t="n">
-        <v>2706.888234874203</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W32" t="n">
-        <v>2354.119579604089</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X32" t="n">
-        <v>1980.653821343009</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y32" t="n">
-        <v>1590.514489367197</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3143.95735677893</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="C34" t="n">
-        <v>2975.021173851023</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="D34" t="n">
-        <v>2824.904534438688</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="E34" t="n">
-        <v>2824.904534438688</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="F34" t="n">
-        <v>2824.904534438688</v>
+        <v>71.44169184227044</v>
       </c>
       <c r="G34" t="n">
-        <v>2714.773796186966</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>2568.556609404824</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="W34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="X34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.3316393401808</v>
       </c>
       <c r="Y34" t="n">
-        <v>3325.60582160917</v>
+        <v>218.3316393401808</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694473</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.606831754061</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D35" t="n">
-        <v>764.3411331473105</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E35" t="n">
-        <v>764.3411331473105</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F35" t="n">
-        <v>353.355228357703</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810553</v>
@@ -6946,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.5429342656</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995486</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734406</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758594</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
@@ -7128,19 +7128,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U37" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V37" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W37" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X37" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.68248070098099</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1491.569348694473</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>1122.606831754061</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>1122.606831754061</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>1122.606831754061</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>711.6209269644535</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2641.774278995486</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X38" t="n">
-        <v>2268.308520734406</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y38" t="n">
-        <v>1878.169188758594</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
@@ -7359,25 +7359,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U40" t="n">
-        <v>631.7841389438285</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V40" t="n">
-        <v>631.7841389438285</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W40" t="n">
-        <v>342.3669689068678</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="X40" t="n">
-        <v>342.3669689068678</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.5743897633377</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.569348694473</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.606831754061</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.606831754061</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E41" t="n">
-        <v>1122.606831754061</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F41" t="n">
-        <v>711.6209269644535</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>296.5484768094499</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W41" t="n">
-        <v>2641.774278995486</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.308520734406</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.169188758594</v>
+        <v>1905.708923793476</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.6287558445192</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C43" t="n">
-        <v>216.6287558445192</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
@@ -7599,22 +7599,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T43" t="n">
-        <v>760.4161109247625</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="U43" t="n">
-        <v>471.3132440504061</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6287558445192</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="W43" t="n">
-        <v>216.6287558445192</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="X43" t="n">
-        <v>216.6287558445192</v>
+        <v>712.8700047979503</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.6287558445192</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1712.341567565139</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C44" t="n">
-        <v>1343.379050624727</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D44" t="n">
-        <v>985.1133520179767</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>599.3250994197324</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>188.3391946301248</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218343</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>3215.315153136266</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W44" t="n">
-        <v>2862.546497866152</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X44" t="n">
-        <v>2489.080739605072</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y44" t="n">
-        <v>2098.941407629261</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>226.983011325606</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
         <v>66.51211643218343</v>
@@ -7845,13 +7845,13 @@
         <v>377.0996507379417</v>
       </c>
       <c r="W46" t="n">
-        <v>87.6824807009811</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="X46" t="n">
-        <v>66.51211643218343</v>
+        <v>377.0996507379417</v>
       </c>
       <c r="Y46" t="n">
-        <v>66.51211643218343</v>
+        <v>377.0996507379417</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747717</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
-        <v>218.4267706822987</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>225.3409781657483</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>375.5336460862204</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328709</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>86.27197698880633</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>162.1097117201341</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>67.2382049840829</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1407179132889</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>61.59970664354542</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>22.7749124282733</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>77.29308816345807</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7251189095246</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>96.52685491898956</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>85.95446606071644</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>104.8488620722108</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>58.92686411476865</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>61.70981873818779</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>21.72895798776025</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>12.56652187753461</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>74.18139529270546</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>235.8877205747717</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>338.8602836061335</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>260.0299246530026</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328709</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>214.0843260727917</v>
+        <v>48.27134388011237</v>
       </c>
       <c r="U5" t="n">
-        <v>104.3348437827354</v>
+        <v>63.64367339871049</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.68706256115848</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>129.842738091426</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.59970664354542</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>77.29308816345807</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2242511465658</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>180.1516876516722</v>
+        <v>7.884010625681412</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459977</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.8365746885955</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>127.616033927503</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>61.70981873818779</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K7" t="n">
-        <v>21.72895798776025</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>12.56652187753461</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q7" t="n">
-        <v>74.18139529270546</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,13 +23026,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>400.4793217556698</v>
       </c>
       <c r="G8" t="n">
         <v>413.097833230058</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.08171901666378</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>48.27134388011225</v>
+        <v>25.91829388988671</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871046</v>
+        <v>63.64367339871026</v>
       </c>
       <c r="V8" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.360646473772903</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23120,10 +23120,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377086</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459954</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>40.60044802738273</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213452</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R10" t="n">
-        <v>80.60642335625593</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
         <v>206.7802557954962</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>165.7305790876777</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>337.948102158895</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>72.66698746754767</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>84.2538046853648</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,16 +23472,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>226.3201401616556</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>47.51613997224911</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>34.98324540096796</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>159.0819135190354</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>290.9502639294481</v>
+        <v>79.45046126133741</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23828,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>167.427799865174</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,16 +23946,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>188.212615336077</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.7783490691167</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>281.3552569271556</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>145.0671476329186</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2566683424808</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>73.97641341275988</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>39.91665348666305</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24417,16 +24417,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>45.76230522500896</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>154.1943732987676</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>62.43050668165678</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24660,13 +24660,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>221.8557654114529</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>155.0701515403399</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.74176711264083</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>218.7656321186406</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>208.2078224813924</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>170.1349897010399</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>56.99637738982341</v>
+        <v>161.1455286030421</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>126.9470448471891</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>173.9989569713598</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25213,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>158.8733195558277</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,13 +25368,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>66.87176761382653</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>290.9502639294492</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>125.3203295840945</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>91.74422531566293</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>66.87176761382659</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>278.2595096434353</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>60.68276333168106</v>
+        <v>13.61211826613695</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>243.8346236262823</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>290.3129182374915</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>132.9888247250121</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>402256.5418769753</v>
+        <v>433263.0758337674</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>402256.5418769756</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587493</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587493</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="C2" t="n">
-        <v>139242.6491112606</v>
+        <v>149975.680096304</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.680096304</v>
+        <v>149975.6800963041</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318747</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318746</v>
@@ -26337,22 +26337,22 @@
         <v>296136.8796318744</v>
       </c>
       <c r="J2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="K2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="L2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="M2" t="n">
         <v>296136.8796318744</v>
-      </c>
-      <c r="K2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="L2" t="n">
-        <v>296136.8796318746</v>
-      </c>
-      <c r="M2" t="n">
-        <v>296136.8796318746</v>
       </c>
       <c r="N2" t="n">
         <v>296136.8796318744</v>
       </c>
       <c r="O2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318745</v>
       </c>
       <c r="P2" t="n">
         <v>296136.8796318745</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751307</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074425</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336678</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613423</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904856</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.192147960263</v>
+        <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>107.192147960263</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="D4" t="n">
-        <v>137.800118072334</v>
+        <v>137.8001180723342</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
         <v>584.646989006123</v>
@@ -26453,7 +26453,7 @@
         <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
         <v>584.6469890061231</v>
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.11977902091</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.11977902092</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="M5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457239.0977908512</v>
+        <v>-510698.8849732619</v>
       </c>
       <c r="C6" t="n">
-        <v>85416.3371842794</v>
+        <v>80658.01754758347</v>
       </c>
       <c r="D6" t="n">
-        <v>49048.27572587383</v>
+        <v>80658.01754758325</v>
       </c>
       <c r="E6" t="n">
-        <v>-405888.7515521926</v>
+        <v>-409962.746930362</v>
       </c>
       <c r="F6" t="n">
-        <v>221245.8920814754</v>
+        <v>217171.8967033058</v>
       </c>
       <c r="G6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="H6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033056</v>
       </c>
       <c r="I6" t="n">
-        <v>221245.8920814749</v>
+        <v>217171.8967033052</v>
       </c>
       <c r="J6" t="n">
-        <v>182824.4855753408</v>
+        <v>168106.951974761</v>
       </c>
       <c r="K6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="L6" t="n">
-        <v>210950.2853324266</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="M6" t="n">
-        <v>60789.45021359774</v>
+        <v>56715.45483542814</v>
       </c>
       <c r="N6" t="n">
-        <v>221245.892081475</v>
+        <v>217171.8967033053</v>
       </c>
       <c r="O6" t="n">
-        <v>221245.8920814752</v>
+        <v>217171.8967033055</v>
       </c>
       <c r="P6" t="n">
-        <v>221245.8920814751</v>
+        <v>217171.8967033055</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572211</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572211</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887089</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572211</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568352</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>541.306759680394</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761101</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887092</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761067</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887088</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761101</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0586004549034</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877945</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>79.3641940376634</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593576</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154185</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871685</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270568</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695512</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961055</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656777</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744497</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253258</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>46.91035786611127</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339636</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645458</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>139.0785066724536</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>239.1543878358324</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206855</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720421</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914129</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711235</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050589</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727198</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297038</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055018</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179395</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864959</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793586</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120832</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421835</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199994</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>141.308030123369</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863685</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843224</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674038</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910843</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741627</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113013</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825131</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0586004549034</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877945</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>79.3641940376634</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593576</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154185</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871685</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270568</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>367.3212256695512</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961055</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656777</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744497</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253258</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611127</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339636</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645458</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>177.8597534986737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358324</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>239.6835023472061</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720421</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914129</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711235</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332808</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050589</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727198</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297038</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055018</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179395</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864959</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793586</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120832</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421835</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199994</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>141.308030123369</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863685</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843224</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674038</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910843</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741627</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113013</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825131</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,13 +31594,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J9" t="n">
         <v>111.4584056340083</v>
@@ -31609,34 +31609,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K10" t="n">
         <v>114.9089482765069</v>
@@ -31697,25 +31697,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S10" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953996</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003801</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043796</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718129</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997841</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729602</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7528059744187</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040821</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.237067698094591</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>100.6000080559582</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986671</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887088</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469685</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679327</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.402291260945219</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>5.824074272394313</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>13.62248565813579</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043796</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718129</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997841</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729602</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744187</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040821</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.01831452431469</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559582</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>97.5494684251878</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887089</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469685</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679327</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592692</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2.402291260945219</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M7" t="n">
-        <v>5.824074272394313</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N7" t="n">
-        <v>13.62248565813579</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553995</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.529336755</v>
+        <v>450275.6437737595</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.05951393</v>
+        <v>8636206.831769027</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730742</v>
+        <v>8627903.240604855</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.396723986041382</v>
+        <v>129.3420634549347</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02307145248640928</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>129.3420634549347</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>21.41405905276496</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21594625443434</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.5255871663198</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.802342363975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.9045589040915</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265842</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>36.43383855780554</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>187.5255871663201</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.396723986041591</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6.396723986041656</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>187.5255871663201</v>
-      </c>
-      <c r="U8" t="n">
-        <v>187.5255871663201</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>187.5255871663201</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>165.1725371760947</v>
+        <v>13.45644170423175</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>52.21594625443466</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>245.7853873250196</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.28983649715861</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>81.77200357366343</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>166.1712432162365</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>138.9527516093519</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>293.5228477376548</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>66.62774187000176</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>23.89689876254063</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>285.8224305096701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>178.674067393074</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12.40418031676334</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>225.528676622491</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>191.7041177524638</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>88.37584375131343</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.32798500961401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>285.99082894526</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>346.3212851693905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657079</v>
       </c>
       <c r="H24" t="n">
         <v>89.59687541851115</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>20.95866062610961</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>46.27182779876053</v>
       </c>
       <c r="E26" t="n">
-        <v>336.1680648472528</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2611,19 +2611,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2687,7 +2687,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>117.4014735002805</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>20.95866062610962</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>226.8602185319219</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>106.9151871668376</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>6.944023270396605</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>133.7823419124759</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>157.0650692896151</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>32.23168924578589</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -3091,10 +3091,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>4.880279655986155</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>120.6088074159607</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>58.92805047992164</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414557</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.6311678681422</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>72.57171105915231</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>78.78083674901981</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>9.125931893480782</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>194.7787730209281</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>85.95014028179378</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>107.9784290126182</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>10.13884651711874</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>205.9368310100323</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.8992180371983</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>62.45439117602732</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>13.44513792155707</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>194.6493049874286</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659128</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="C2" t="n">
-        <v>210.8831693494281</v>
+        <v>142.3962386314752</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294335</v>
+        <v>142.3962386314752</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>53.1018177918304</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458399</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>271.1217663066261</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>407.6508467588566</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735312</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823975</v>
+        <v>439.0550691137153</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823975</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823975</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823975</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823975</v>
+        <v>290.7256538725952</v>
       </c>
       <c r="Y2" t="n">
-        <v>589.7227393823975</v>
+        <v>290.7256538725952</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.55991817042155</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="C3" t="n">
-        <v>30.55991817042155</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="D3" t="n">
-        <v>30.55991817042155</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="E3" t="n">
-        <v>30.55991817042155</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="F3" t="n">
-        <v>30.55991817042155</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296053</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296053</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296053</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>51.36582106616825</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>150.9598290415669</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>247.5338027825027</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>392.9114626603244</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>511.1831359408233</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>586.7735145200486</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548353</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198758</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198758</v>
+        <v>456.7359354104568</v>
       </c>
       <c r="V3" t="n">
-        <v>409.399488203391</v>
+        <v>308.4065201693368</v>
       </c>
       <c r="W3" t="n">
-        <v>219.9797031869063</v>
+        <v>308.4065201693368</v>
       </c>
       <c r="X3" t="n">
-        <v>30.55991817042155</v>
+        <v>160.0771049282168</v>
       </c>
       <c r="Y3" t="n">
-        <v>30.55991817042155</v>
+        <v>160.0771049282168</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>697.3589686102953</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="C4" t="n">
-        <v>697.3589686102953</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="D4" t="n">
-        <v>697.3589686102953</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="E4" t="n">
-        <v>697.3589686102953</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="F4" t="n">
-        <v>697.3589686102953</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="G4" t="n">
-        <v>697.3589686102953</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="H4" t="n">
-        <v>697.3589686102953</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="I4" t="n">
-        <v>697.3589686102953</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="J4" t="n">
-        <v>697.3589686102953</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="K4" t="n">
-        <v>697.3589686102953</v>
+        <v>11.74768968709671</v>
       </c>
       <c r="L4" t="n">
-        <v>709.3965921992915</v>
+        <v>14.12595803543247</v>
       </c>
       <c r="M4" t="n">
-        <v>725.3468614886968</v>
+        <v>19.89179156510284</v>
       </c>
       <c r="N4" t="n">
-        <v>748.775394930953</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652795</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652795</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652795</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652795</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="W4" t="n">
-        <v>697.3589686102953</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="X4" t="n">
-        <v>697.3589686102953</v>
+        <v>33.37805236665727</v>
       </c>
       <c r="Y4" t="n">
-        <v>697.3589686102953</v>
+        <v>33.37805236665727</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897903</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="C5" t="n">
-        <v>204.4218319897903</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897903</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4218319897903</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897903</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897903</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678512</v>
+        <v>13.34259413586628</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058956</v>
+        <v>64.08111238184313</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>306.6973793432475</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123828</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985582</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020263</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652794</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652794</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652794</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="T5" t="n">
-        <v>583.2614020227597</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="U5" t="n">
-        <v>393.841617006275</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="V5" t="n">
-        <v>204.4218319897903</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="W5" t="n">
-        <v>204.4218319897903</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="X5" t="n">
-        <v>204.4218319897903</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="Y5" t="n">
-        <v>204.4218319897903</v>
+        <v>350.2767894860247</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>219.9797031869062</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C6" t="n">
-        <v>219.9797031869062</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D6" t="n">
-        <v>219.9797031869062</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E6" t="n">
-        <v>191.896529081881</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>191.896529081881</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>191.896529081881</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>90.03616812153784</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>30.53661367296056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772648</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140241</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546598</v>
+        <v>476.9208474646505</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476345</v>
+        <v>604.5841099877839</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017059</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652794</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652794</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S6" t="n">
-        <v>598.8192732198756</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="T6" t="n">
-        <v>409.3994882033909</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="U6" t="n">
-        <v>409.3994882033909</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="V6" t="n">
-        <v>409.3994882033909</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="W6" t="n">
-        <v>219.9797031869062</v>
+        <v>161.728413768076</v>
       </c>
       <c r="X6" t="n">
-        <v>219.9797031869062</v>
+        <v>161.728413768076</v>
       </c>
       <c r="Y6" t="n">
-        <v>219.9797031869062</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330559</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230172</v>
+        <v>20.64084305584018</v>
       </c>
       <c r="M7" t="n">
-        <v>42.9899398517071</v>
+        <v>31.59410626612424</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396325</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828974</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="V7" t="n">
-        <v>67.74542702828974</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>67.74542702828974</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>67.74542702828974</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.74542702828974</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>210.8831693494285</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="C8" t="n">
-        <v>210.8831693494285</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="D8" t="n">
-        <v>21.46338433294358</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="E8" t="n">
-        <v>21.46338433294358</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="F8" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678506</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058967</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123833</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S8" t="n">
-        <v>589.7227393823983</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="T8" t="n">
-        <v>400.3029543659134</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="U8" t="n">
-        <v>210.8831693494285</v>
+        <v>589.7227393823986</v>
       </c>
       <c r="V8" t="n">
-        <v>210.8831693494285</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="W8" t="n">
-        <v>210.8831693494285</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="X8" t="n">
-        <v>210.8831693494285</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="Y8" t="n">
-        <v>210.8831693494285</v>
+        <v>393.8416170062756</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.0020469733056</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J9" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K9" t="n">
-        <v>67.1341887702422</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M9" t="n">
         <v>338.7690911140247</v>
@@ -4901,34 +4901,34 @@
         <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487954</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="V9" t="n">
         <v>371.2627786323105</v>
       </c>
       <c r="W9" t="n">
-        <v>181.8429936158255</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="X9" t="n">
-        <v>15.0020469733056</v>
+        <v>357.6704132745007</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.0020469733056</v>
+        <v>357.6704132745007</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D10" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L10" t="n">
         <v>27.03967056230183</v>
@@ -4992,22 +4992,22 @@
         <v>67.74542702829011</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702829011</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.597933493125</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.635416552713</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2382.45372106146</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180639</v>
+        <v>2008.98796280038</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.197773557246</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.1100998399243</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="C13" t="n">
-        <v>149.1100998399243</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D13" t="n">
-        <v>149.1100998399243</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E13" t="n">
-        <v>149.1100998399243</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F13" t="n">
-        <v>149.1100998399243</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U13" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V13" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W13" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X13" t="n">
-        <v>149.1100998399243</v>
+        <v>753.0372651957234</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.1100998399243</v>
+        <v>532.2446860521933</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1758.295537883724</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C14" t="n">
-        <v>1617.939223126803</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5293,37 +5293,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267228</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923657</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.034709923657</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.034709923657</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y14" t="n">
-        <v>2144.895377947846</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5384,25 +5384,25 @@
         <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218339</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218339</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596504</v>
@@ -5460,28 +5460,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S16" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T16" t="n">
-        <v>609.2899331452385</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U16" t="n">
-        <v>609.2899331452385</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V16" t="n">
-        <v>354.6054449393516</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="W16" t="n">
-        <v>354.6054449393516</v>
+        <v>409.70322035075</v>
       </c>
       <c r="X16" t="n">
-        <v>287.3046955757135</v>
+        <v>409.70322035075</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218339</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1514.348043559525</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C17" t="n">
-        <v>1225.638517792182</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D17" t="n">
-        <v>867.3728191854311</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5551,16 +5551,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796417</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X17" t="n">
-        <v>1904.487375535337</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y17" t="n">
-        <v>1514.348043559525</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C19" t="n">
         <v>511.4317969248226</v>
@@ -5712,13 +5712,13 @@
         <v>920.8870058181845</v>
       </c>
       <c r="W19" t="n">
-        <v>920.8870058181845</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="X19" t="n">
-        <v>692.8974549201672</v>
+        <v>693.0802617550623</v>
       </c>
       <c r="Y19" t="n">
-        <v>692.8974549201672</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1811.579746109089</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W20" t="n">
-        <v>2513.328941997115</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.060412955384</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y20" t="n">
-        <v>2033.921080979572</v>
+        <v>2198.179586173211</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,31 +5849,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.4020639300938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R22" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S22" t="n">
-        <v>639.3706644025388</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T22" t="n">
-        <v>417.6040489720648</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="U22" t="n">
-        <v>417.6040489720648</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="V22" t="n">
-        <v>417.6040489720648</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="W22" t="n">
-        <v>417.6040489720648</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X22" t="n">
-        <v>417.6040489720648</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.0505287603335</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1278.358723975039</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C23" t="n">
-        <v>1278.358723975039</v>
+        <v>1053.23793938793</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>694.9722407811798</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6013,28 +6013,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2388.243802269322</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1664.958564039161</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
         <v>176.0213023927779</v>
@@ -6065,7 +6065,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
@@ -6177,22 +6177,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T25" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U25" t="n">
-        <v>610.6137746750309</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>355.929286469144</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W25" t="n">
-        <v>66.51211643218342</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1175.300932605789</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C26" t="n">
-        <v>806.3384156653772</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="D26" t="n">
-        <v>448.0727170586267</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
@@ -6259,19 +6259,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V26" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W26" t="n">
-        <v>2325.505862906802</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X26" t="n">
-        <v>1952.040104645722</v>
+        <v>2051.278283189672</v>
       </c>
       <c r="Y26" t="n">
-        <v>1561.900772669911</v>
+        <v>2051.278283189672</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K28" t="n">
         <v>176.6457242372932</v>
@@ -6411,25 +6411,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S28" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T28" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U28" t="n">
-        <v>729.2011216450112</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V28" t="n">
-        <v>474.5166334391243</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W28" t="n">
-        <v>185.0994634021637</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X28" t="n">
-        <v>185.0994634021637</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.0994634021637</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1848.950422814787</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C29" t="n">
-        <v>1479.987905874375</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D29" t="n">
-        <v>1121.722207267625</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>174.5072549845447</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>174.5072549845447</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2961.784676410103</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2609.016021139988</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>2235.550262878909</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>2235.550262878909</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6518,70 +6518,70 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.4317969248226</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C31" t="n">
-        <v>511.4317969248226</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124869</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E31" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V31" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W31" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X31" t="n">
-        <v>913.8728408985925</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y31" t="n">
-        <v>693.0802617550623</v>
+        <v>563.9867116882403</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1422.200456328342</v>
+        <v>2038.144201386631</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.548871187317</v>
+        <v>1669.181684446219</v>
       </c>
       <c r="D32" t="n">
-        <v>905.2831725805665</v>
+        <v>1310.915985839469</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>925.1277332412246</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>514.1418284516171</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>99.06937829661359</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>99.06937829661359</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392464</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y32" t="n">
-        <v>1808.800296392464</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>218.3316393401808</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>218.3316393401808</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>218.3316393401808</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>218.3316393401808</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>71.44169184227044</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
         <v>332.3555681596505</v>
@@ -6885,25 +6885,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>218.3316393401808</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>218.3316393401808</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3316393401808</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X34" t="n">
-        <v>218.3316393401808</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.3316393401808</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1712.341567565137</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1343.379050624726</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>985.1133520179753</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>599.325099419731</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>188.3391946301235</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>188.3391946301235</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>3215.315153136265</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W35" t="n">
-        <v>2862.546497866151</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X35" t="n">
-        <v>2489.080739605071</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y35" t="n">
-        <v>2098.941407629259</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -7013,34 +7013,34 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
         <v>2435.471302619336</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E37" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>785.9060281735974</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>785.9060281735974</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.8870058181849</v>
+        <v>531.2215399677106</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1252.833343223198</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>883.8708262827865</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>525.6051276760361</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>139.8168750777918</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>139.8168750777918</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>139.8168750777918</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7192,34 +7192,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450753</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X38" t="n">
-        <v>2345.167438673965</v>
+        <v>2029.572515263132</v>
       </c>
       <c r="Y38" t="n">
-        <v>2345.167438673965</v>
+        <v>1639.43318328732</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>532.4548862703364</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="C40" t="n">
-        <v>363.5187033424295</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="D40" t="n">
-        <v>213.4020639300938</v>
+        <v>214.4252100145766</v>
       </c>
       <c r="E40" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S40" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T40" t="n">
-        <v>729.2011216450112</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U40" t="n">
-        <v>729.2011216450112</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V40" t="n">
-        <v>729.2011216450112</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="W40" t="n">
-        <v>532.4548862703364</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="X40" t="n">
-        <v>532.4548862703364</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="Y40" t="n">
-        <v>532.4548862703364</v>
+        <v>223.6433230382945</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1519.109083729354</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="C41" t="n">
-        <v>1150.146566788942</v>
+        <v>1308.370295943749</v>
       </c>
       <c r="D41" t="n">
-        <v>791.8808681821918</v>
+        <v>950.1045973369987</v>
       </c>
       <c r="E41" t="n">
-        <v>406.0926155839475</v>
+        <v>564.3163447387544</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>153.3304399491469</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>153.3304399491469</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W41" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X41" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y41" t="n">
-        <v>1905.708923793476</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="42">
@@ -7481,25 +7481,25 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
         <v>1685.951113992583</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>531.2215399677106</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C43" t="n">
-        <v>531.2215399677106</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D43" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T43" t="n">
-        <v>712.8700047979503</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U43" t="n">
-        <v>712.8700047979503</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="V43" t="n">
-        <v>712.8700047979503</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="W43" t="n">
-        <v>712.8700047979503</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="X43" t="n">
-        <v>712.8700047979503</v>
+        <v>444.4359021818246</v>
       </c>
       <c r="Y43" t="n">
-        <v>712.8700047979503</v>
+        <v>223.6433230382945</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C44" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7669,31 +7669,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392465</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416653</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="45">
@@ -7703,70 +7703,70 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>377.0996507379417</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C46" t="n">
-        <v>377.0996507379417</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D46" t="n">
-        <v>226.983011325606</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E46" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T46" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877115</v>
       </c>
       <c r="U46" t="n">
-        <v>631.7841389438286</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="V46" t="n">
-        <v>377.0996507379417</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="W46" t="n">
-        <v>377.0996507379417</v>
+        <v>410.0175235133551</v>
       </c>
       <c r="X46" t="n">
-        <v>377.0996507379417</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y46" t="n">
-        <v>377.0996507379417</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
   </sheetData>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>218.4267706822987</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.5336460862204</v>
+        <v>252.5883066173271</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328709</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>86.27197698880633</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>15.26359063142525</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>104.3348437827354</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0.5989444759299261</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1407179132889</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>61.59970664354542</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.7749124282733</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>77.29308816345807</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>21.88218769163115</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.7251189095246</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>85.95446606071644</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>58.92686411476865</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22716,22 +22716,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>124.0069889701663</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>61.70981873818779</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>21.72895798776025</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,31 +22743,31 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474336</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>26.04487966482523</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>74.18139529270546</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3070520821566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>240.093619043383</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399025</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666381</v>
+        <v>81.59093052713874</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>48.27134388011237</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871049</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038151</v>
+        <v>180.8502970342473</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>182.4585420190846</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>129.842738091426</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846321</v>
+        <v>74.81755514382759</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681412</v>
+        <v>28.78198192262309</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>66.01816045109686</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459977</v>
+        <v>84.9125564625912</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>58.78073434141677</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.616033927503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825419</v>
+        <v>59.3465326483775</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402855</v>
+        <v>17.84535296940157</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594797</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709389</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159727</v>
+        <v>71.38234319379296</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>215.7038047660225</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23026,16 +23026,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400.4793217556698</v>
+        <v>219.3504585753913</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637379</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988671</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871026</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.3555344840933</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23156,16 +23156,16 @@
         <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377086</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831052</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459954</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>40.60044802738273</v>
+        <v>192.3165434992457</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23187,7 +23187,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>94.21801639213452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23232,7 +23232,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356655</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>103.4555813923934</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>337.948102158895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>84.2538046853648</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,19 +23472,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>59.53841217280063</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>226.3201401616556</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>76.20825294081425</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23712,16 +23712,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>159.0819135190354</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>194.6877545895542</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>79.45046126133741</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>176.0089742276089</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>167.427799865174</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>60.99432171410004</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>162.9789238682191</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>281.3552569271556</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>147.4609218293965</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>196.2566683424808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>95.93954112700175</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>39.91665348666305</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24417,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>198.5902886500596</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>308.4112138219224</v>
       </c>
       <c r="E26" t="n">
-        <v>45.76230522500896</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.43050668165678</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>155.0701515403399</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>187.6925772204828</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24733,13 +24733,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>218.7656321186406</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>84.80231143961893</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>208.2078224813924</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9.345240527140064</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>161.1455286030421</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>173.9989569713598</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>268.8242079902133</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>85.91778140802703</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>222.0360533281682</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>290.9502639294492</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>170.7060482884565</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>91.74422531566293</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>208.6576241055267</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>278.2595096434353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>169.6931336648186</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>13.61211826613695</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>243.8346236262823</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>307.2767095024417</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>132.9888247250121</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>31.0603504016085</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337674</v>
+        <v>402256.5418769754</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337675</v>
+        <v>417888.8482179074</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337677</v>
+        <v>433263.0758337678</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587487</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.5411587487</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587493</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>144653.8320754295</v>
       </c>
       <c r="D2" t="n">
         <v>149975.6800963041</v>
       </c>
       <c r="E2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
         <v>296136.8796318746</v>
@@ -26331,31 +26331,31 @@
         <v>296136.8796318746</v>
       </c>
       <c r="H2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="I2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>296136.8796318744</v>
       </c>
-      <c r="J2" t="n">
-        <v>296136.8796318746</v>
-      </c>
       <c r="K2" t="n">
-        <v>296136.8796318746</v>
+        <v>296136.8796318744</v>
       </c>
       <c r="L2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318743</v>
       </c>
       <c r="M2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318748</v>
       </c>
       <c r="N2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318748</v>
       </c>
       <c r="O2" t="n">
         <v>296136.8796318745</v>
       </c>
       <c r="P2" t="n">
-        <v>296136.8796318745</v>
+        <v>296136.8796318746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751307</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340624</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>21735.840856791</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>627134.6436336671</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>38421.40650613411</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136601</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004491</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678773</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.800118072334</v>
+        <v>107.192147960263</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723339</v>
+        <v>122.1898065383437</v>
       </c>
       <c r="D4" t="n">
         <v>137.8001180723342</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.646989006123</v>
       </c>
       <c r="F4" t="n">
         <v>584.646989006123</v>
@@ -26435,7 +26435,7 @@
         <v>584.646989006123</v>
       </c>
       <c r="H4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="I4" t="n">
         <v>584.6469890061231</v>
@@ -26450,16 +26450,16 @@
         <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="N4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061234</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061232</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061234</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.11977902091</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161356</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26490,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732619</v>
+        <v>-458518.1319426715</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758347</v>
+        <v>64626.8667898575</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758325</v>
+        <v>69896.83250792375</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.746930362</v>
+        <v>-406296.151090009</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033058</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033056</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033052</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.951974761</v>
+        <v>182417.0860375239</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033055</v>
+        <v>215707.5254415215</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033055</v>
+        <v>215588.5853176535</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542814</v>
+        <v>60382.05067578091</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436584</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436582</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129045</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129048</v>
@@ -26770,16 +26770,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663198</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
         <v>187.5255871663201</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572211</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697019</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>17.85630888871356</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>541.3067596803933</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,22 +26977,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961958</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.74316046799171</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887087</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961969</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799171</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359725</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961958</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799171</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.0586004549034</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877945</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.3641940376634</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593576</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154185</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871685</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270568</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.3212256695512</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961055</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656777</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744497</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253258</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611127</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339636</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645458</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>239.1543878358324</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>239.683502347206</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720421</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914129</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711235</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>140.5989153332808</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050589</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727198</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297038</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055018</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179395</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864959</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793586</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120832</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421835</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199994</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.308030123369</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863685</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843224</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674038</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910843</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741627</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113013</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825131</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043117</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470023</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622679</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924577</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>197.1517779249663</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550074</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820368</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620014</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639161</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114192</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784857</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647909</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953996</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356356</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043796</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718129</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997841</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729602</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744187</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040821</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>40.01831452431469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>100.6000080559582</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>97.54946842518771</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887088</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469685</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679327</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0.6171412472592692</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>2.402291260945219</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>5.824074272394313</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>13.62248565813579</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868023</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788327</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504114</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915984</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406597</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781463</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848228</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855691</v>
+        <v>63.17737051063609</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764993</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646075</v>
+        <v>7.371968606034244</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061149</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520823</v>
+        <v>18.73772222104904</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400495</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687133</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O22" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M37" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M40" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O40" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M43" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
